--- a/BackTest/2020-01-12 BackTest EOS.xlsx
+++ b/BackTest/2020-01-12 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>64563.19015788</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>57892.46365788</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1573,11 +1573,17 @@
         <v>18126.61658005002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3275</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1612,17 @@
         <v>18834.49828005002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3278</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1655,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1692,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1729,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1766,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1799,17 @@
         <v>33547.22176638002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3278</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1842,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1879,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1916,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1953,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1990,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2027,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2064,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2101,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2138,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2175,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2212,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2249,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2286,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2323,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2360,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2397,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2434,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2471,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2508,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2545,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2582,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2619,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2656,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2693,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2730,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2767,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2800,17 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3263</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2839,17 @@
         <v>49240.13715835002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3263</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2878,17 @@
         <v>65508.51695835002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3265</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2921,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2954,17 @@
         <v>63864.70985835003</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3268</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2997,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3034,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3071,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3108,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3145,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3182,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3215,17 @@
         <v>49020.87045835004</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3254</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3254,17 @@
         <v>49288.68095835004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3249</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3293,17 @@
         <v>48932.21235835004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3256</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3332,17 @@
         <v>49182.67915835004</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3249</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,7 +3371,7 @@
         <v>50150.09565835004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>3250</v>
@@ -3165,7 +3379,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3196,7 +3410,7 @@
         <v>50609.37695835004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>3253</v>
@@ -3235,7 +3449,7 @@
         <v>50610.37695835004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>3257</v>
@@ -3274,7 +3488,7 @@
         <v>48915.34695835004</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>3260</v>
@@ -3313,7 +3527,7 @@
         <v>42387.93895835004</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>3255</v>
@@ -3352,7 +3566,7 @@
         <v>43588.60925835004</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3253</v>
@@ -3391,7 +3605,7 @@
         <v>41969.28105835004</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>3259</v>
@@ -3430,7 +3644,7 @@
         <v>46264.53325835004</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3256</v>
@@ -3469,7 +3683,7 @@
         <v>44269.00315835004</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3262</v>
@@ -3508,7 +3722,7 @@
         <v>44269.00315835004</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3260</v>
@@ -3547,7 +3761,7 @@
         <v>44371.87115835004</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3260</v>
@@ -3586,7 +3800,7 @@
         <v>35222.97425835004</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3263</v>
@@ -3625,7 +3839,7 @@
         <v>39322.34655835004</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>3261</v>
@@ -3664,7 +3878,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>3262</v>
@@ -3703,9 +3917,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3260</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3740,7 +3956,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>3260</v>
@@ -3779,7 +3995,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3260</v>
@@ -3818,7 +4034,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3260</v>
@@ -3857,7 +4073,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3260</v>
@@ -3896,7 +4112,7 @@
         <v>40997.30728039004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3260</v>
@@ -3935,7 +4151,7 @@
         <v>41001.14270406005</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3266</v>
@@ -3974,7 +4190,7 @@
         <v>40728.96230406005</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>3269</v>
@@ -4013,7 +4229,7 @@
         <v>41589.46730406005</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>3264</v>
@@ -4052,7 +4268,7 @@
         <v>41026.46730406005</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>3269</v>
@@ -4091,9 +4307,11 @@
         <v>41026.46730406005</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3261</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4128,9 +4346,11 @@
         <v>41867.36760406005</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3261</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4165,9 +4385,11 @@
         <v>41241.61700406005</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3264</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4757,9 +4979,11 @@
         <v>63000.30070406006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3282</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -7717,7 +7941,7 @@
         <v>168844.29501481</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7754,7 +7978,7 @@
         <v>169984.37351481</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7791,7 +8015,7 @@
         <v>167629.03441481</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7828,7 +8052,7 @@
         <v>168354.23661481</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7865,7 +8089,7 @@
         <v>181745.31791481</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7902,7 +8126,7 @@
         <v>170950.29861481</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8161,7 +8385,7 @@
         <v>172973.07231481</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8198,7 +8422,7 @@
         <v>172973.07231481</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8235,7 +8459,7 @@
         <v>172756.07231481</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8309,7 +8533,7 @@
         <v>179870.81021481</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8383,7 +8607,7 @@
         <v>192472.81921481</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8457,7 +8681,7 @@
         <v>194146.72611481</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8494,7 +8718,7 @@
         <v>193553.79971481</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8605,7 +8829,7 @@
         <v>194125.70431481</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8642,7 +8866,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8679,7 +8903,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -18706,16 +18930,18 @@
         <v>361212.34047386</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L503" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
       <c r="M503" t="inlineStr"/>
     </row>
     <row r="504">
@@ -18741,11 +18967,15 @@
         <v>361212.34047386</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18774,11 +19004,15 @@
         <v>374484.10537386</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18807,11 +19041,15 @@
         <v>360942.7983738601</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18844,7 +19082,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18877,7 +19119,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18910,7 +19156,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18943,7 +19193,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18976,7 +19230,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19009,7 +19267,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19042,7 +19304,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19075,7 +19341,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19104,11 +19374,15 @@
         <v>378158.6044731001</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19137,11 +19411,15 @@
         <v>390315.1169731001</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19170,11 +19448,15 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19203,11 +19485,15 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19236,14 +19522,16 @@
         <v>386476.8812731001</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="n">
-        <v>1</v>
-      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="inlineStr"/>
     </row>
     <row r="520">
@@ -19269,7 +19557,7 @@
         <v>384300.9862731001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19302,7 +19590,7 @@
         <v>395668.7410731001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19335,7 +19623,7 @@
         <v>401585.8831055501</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19368,7 +19656,7 @@
         <v>393842.7692055501</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19401,7 +19689,7 @@
         <v>389708.9760055501</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19434,7 +19722,7 @@
         <v>392394.1784055501</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19467,7 +19755,7 @@
         <v>391427.7854055501</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19500,7 +19788,7 @@
         <v>376612.7939055501</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19533,7 +19821,7 @@
         <v>387684.8281055501</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19566,7 +19854,7 @@
         <v>386773.2459055501</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19599,7 +19887,7 @@
         <v>386773.2459055501</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19632,7 +19920,7 @@
         <v>381022.3720055501</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19665,7 +19953,7 @@
         <v>384131.45968424</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19698,7 +19986,7 @@
         <v>383408.57190595</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19731,7 +20019,7 @@
         <v>379410.24510595</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19764,7 +20052,7 @@
         <v>381939.62810595</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19797,7 +20085,7 @@
         <v>373595.69820595</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19830,7 +20118,7 @@
         <v>372099.99060595</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19863,7 +20151,7 @@
         <v>372099.99060595</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19896,7 +20184,7 @@
         <v>372372.84690595</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19929,7 +20217,7 @@
         <v>372042.31380595</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19962,7 +20250,7 @@
         <v>372042.31380595</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19995,7 +20283,7 @@
         <v>372516.23140595</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20028,7 +20316,7 @@
         <v>364077.86234241</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20061,7 +20349,7 @@
         <v>362531.51194241</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20292,7 +20580,7 @@
         <v>313064.25794241</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20325,7 +20613,7 @@
         <v>317716.5958424099</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20358,7 +20646,7 @@
         <v>319228.5028424099</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20391,7 +20679,7 @@
         <v>319228.5028424099</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20424,7 +20712,7 @@
         <v>319703.0353424099</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20457,7 +20745,7 @@
         <v>320182.5291424099</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20490,7 +20778,7 @@
         <v>321766.9897424099</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -27717,7 +28005,7 @@
         <v>299454.1530459797</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27750,7 +28038,7 @@
         <v>305718.5089459798</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27783,7 +28071,7 @@
         <v>305718.5089459798</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27816,7 +28104,7 @@
         <v>309833.6012459798</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27849,7 +28137,7 @@
         <v>314171.1266459798</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27882,7 +28170,7 @@
         <v>301977.2807459797</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27915,7 +28203,7 @@
         <v>302124.6290459798</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27948,7 +28236,7 @@
         <v>296967.9293459798</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27981,7 +28269,7 @@
         <v>296965.5893459797</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28014,7 +28302,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28047,7 +28335,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28080,7 +28368,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28113,7 +28401,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28146,7 +28434,7 @@
         <v>289849.7536459797</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28179,7 +28467,7 @@
         <v>291949.0053459798</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28212,7 +28500,7 @@
         <v>229711.1057459798</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28245,7 +28533,7 @@
         <v>224254.2979459797</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28278,7 +28566,7 @@
         <v>228129.6019459798</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28311,7 +28599,7 @@
         <v>228294.4319459797</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28344,7 +28632,7 @@
         <v>228267.2694459797</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28377,7 +28665,7 @@
         <v>228327.0391459797</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28410,7 +28698,7 @@
         <v>231716.7364459797</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28509,7 +28797,7 @@
         <v>236498.1117380097</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29235,7 +29523,7 @@
         <v>268108.3583594396</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29301,7 +29589,7 @@
         <v>269607.9378142896</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29334,7 +29622,7 @@
         <v>274068.7271142896</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29367,7 +29655,7 @@
         <v>273373.1577142897</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29400,7 +29688,7 @@
         <v>273530.1577142897</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29433,7 +29721,7 @@
         <v>270680.4396142897</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29466,7 +29754,7 @@
         <v>272736.3092943597</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29499,7 +29787,7 @@
         <v>272671.1992943597</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29532,7 +29820,7 @@
         <v>273032.0614943597</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29598,7 +29886,7 @@
         <v>277875.3156943597</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29631,7 +29919,7 @@
         <v>274975.7097943597</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29664,7 +29952,7 @@
         <v>274975.7097943597</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29697,7 +29985,7 @@
         <v>275924.8728943597</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29730,7 +30018,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29763,7 +30051,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29796,7 +30084,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29829,7 +30117,7 @@
         <v>274008.7628943597</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29895,7 +30183,7 @@
         <v>270018.5132594597</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29928,7 +30216,7 @@
         <v>269508.8876594597</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29961,7 +30249,7 @@
         <v>270693.6292594597</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29994,7 +30282,7 @@
         <v>269842.0005594597</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30027,7 +30315,7 @@
         <v>269443.8648594597</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30060,7 +30348,7 @@
         <v>272804.0377594597</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30093,7 +30381,7 @@
         <v>273378.2177594597</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30126,7 +30414,7 @@
         <v>273524.7372594597</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30159,7 +30447,7 @@
         <v>273496.3896594597</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30192,7 +30480,7 @@
         <v>272583.2551594597</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30225,7 +30513,7 @@
         <v>270249.5767682297</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30258,7 +30546,7 @@
         <v>270734.1360682297</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30291,7 +30579,7 @@
         <v>273787.5446682298</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30324,7 +30612,7 @@
         <v>275290.8548682298</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30357,7 +30645,7 @@
         <v>282002.7657682298</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30390,7 +30678,7 @@
         <v>280848.5380692598</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30423,7 +30711,7 @@
         <v>280661.6813692598</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30456,7 +30744,7 @@
         <v>276321.9341692598</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30489,7 +30777,7 @@
         <v>277258.1349450698</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30522,7 +30810,7 @@
         <v>277350.5879450698</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30555,7 +30843,7 @@
         <v>277187.9548450698</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30588,7 +30876,7 @@
         <v>276887.9548450698</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30621,7 +30909,7 @@
         <v>270312.9720450698</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30654,7 +30942,7 @@
         <v>271728.4901450698</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30687,7 +30975,7 @@
         <v>272694.2310450698</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30720,7 +31008,7 @@
         <v>272438.4811450698</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30753,7 +31041,7 @@
         <v>271985.9000450697</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30786,7 +31074,7 @@
         <v>270798.3781450698</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30819,7 +31107,7 @@
         <v>268420.2866450698</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30852,7 +31140,7 @@
         <v>266515.7052450698</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30885,7 +31173,7 @@
         <v>266950.8964450698</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30918,7 +31206,7 @@
         <v>266683.2144450698</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30951,7 +31239,7 @@
         <v>263587.9000450698</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30984,7 +31272,7 @@
         <v>268818.1218450698</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31017,7 +31305,7 @@
         <v>269485.1527450698</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31050,7 +31338,7 @@
         <v>269337.0580450698</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31083,7 +31371,7 @@
         <v>269337.0580450698</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31116,7 +31404,7 @@
         <v>269953.0530450698</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31149,7 +31437,7 @@
         <v>269953.0530450698</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31182,7 +31470,7 @@
         <v>271577.4272450698</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31215,7 +31503,7 @@
         <v>273441.6534450698</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31248,7 +31536,7 @@
         <v>284145.6415048898</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31281,7 +31569,7 @@
         <v>278198.2114048898</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31314,7 +31602,7 @@
         <v>278688.1957048898</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31347,7 +31635,7 @@
         <v>278235.7691048898</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31380,7 +31668,7 @@
         <v>278835.4681048898</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31413,7 +31701,7 @@
         <v>279357.6205048899</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31446,7 +31734,7 @@
         <v>278712.2426048898</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31479,7 +31767,7 @@
         <v>278835.2234048899</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31512,7 +31800,7 @@
         <v>277030.2533048899</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31545,7 +31833,7 @@
         <v>277545.0832048899</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31578,7 +31866,7 @@
         <v>277278.5345048899</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31611,7 +31899,7 @@
         <v>277278.5345048899</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31644,7 +31932,7 @@
         <v>276249.0362048899</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31677,7 +31965,7 @@
         <v>276690.0984048899</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31710,7 +31998,7 @@
         <v>276024.8801704799</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31743,7 +32031,7 @@
         <v>275941.0160704799</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31776,7 +32064,7 @@
         <v>271471.4706704799</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31809,7 +32097,7 @@
         <v>271471.4706704799</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31842,7 +32130,7 @@
         <v>271471.4706704799</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31875,7 +32163,7 @@
         <v>271471.4706704799</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31908,7 +32196,7 @@
         <v>271471.4706704799</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31941,7 +32229,7 @@
         <v>273120.9987704799</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31974,7 +32262,7 @@
         <v>273120.9987704799</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32007,7 +32295,7 @@
         <v>273120.9987704799</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32040,7 +32328,7 @@
         <v>271354.2412704799</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32073,7 +32361,7 @@
         <v>274701.3327704799</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32106,7 +32394,7 @@
         <v>273734.9228704799</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32139,7 +32427,7 @@
         <v>273693.0125704799</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32172,7 +32460,7 @@
         <v>273693.0125704799</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32205,7 +32493,7 @@
         <v>269457.9925704799</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32238,7 +32526,7 @@
         <v>265922.3978704799</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32271,7 +32559,7 @@
         <v>265922.3978704799</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32304,7 +32592,7 @@
         <v>265922.3978704799</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32337,7 +32625,7 @@
         <v>269588.0898704798</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32370,7 +32658,7 @@
         <v>270736.2563704798</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32403,7 +32691,7 @@
         <v>270729.8230704798</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32436,7 +32724,7 @@
         <v>271708.9984704799</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32469,7 +32757,7 @@
         <v>271708.9984704799</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32502,7 +32790,7 @@
         <v>274128.8860704799</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32535,7 +32823,7 @@
         <v>276609.5401704799</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32568,7 +32856,7 @@
         <v>276609.5401704799</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32601,7 +32889,7 @@
         <v>277110.1653704799</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32634,7 +32922,7 @@
         <v>277100.1653704799</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32667,7 +32955,7 @@
         <v>281853.6402704798</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32700,7 +32988,7 @@
         <v>281784.2363704799</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32733,7 +33021,7 @@
         <v>281885.4885704799</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32766,7 +33054,7 @@
         <v>282450.1562704798</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32799,7 +33087,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32832,7 +33120,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32865,7 +33153,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32898,7 +33186,7 @@
         <v>284718.3587704799</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32931,7 +33219,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32964,7 +33252,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32997,7 +33285,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33030,7 +33318,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33063,7 +33351,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33096,7 +33384,7 @@
         <v>285714.3542704799</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33129,7 +33417,7 @@
         <v>285891.3039704799</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33162,7 +33450,7 @@
         <v>287237.4026704798</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33195,7 +33483,7 @@
         <v>287501.3509704798</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33228,7 +33516,7 @@
         <v>287045.7816704799</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33261,7 +33549,7 @@
         <v>287323.7954704799</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33294,7 +33582,7 @@
         <v>284933.0571704798</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33327,7 +33615,7 @@
         <v>284897.8150704799</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33360,7 +33648,7 @@
         <v>284967.0904704799</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33393,7 +33681,7 @@
         <v>284969.1739704799</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33426,7 +33714,7 @@
         <v>288342.4189704799</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33459,7 +33747,7 @@
         <v>278756.4943704798</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33492,7 +33780,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33525,7 +33813,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33558,7 +33846,7 @@
         <v>278091.9251704799</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33591,7 +33879,7 @@
         <v>275988.7892130599</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33624,7 +33912,7 @@
         <v>270790.1155130599</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33657,7 +33945,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33690,7 +33978,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33723,7 +34011,7 @@
         <v>272247.9393887099</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33756,7 +34044,7 @@
         <v>271747.7393887099</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33789,7 +34077,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33822,7 +34110,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33855,7 +34143,7 @@
         <v>279958.7251887099</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33888,7 +34176,7 @@
         <v>278828.0076887099</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33921,7 +34209,7 @@
         <v>280414.2333887099</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33954,7 +34242,7 @@
         <v>285903.9739887099</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33987,7 +34275,7 @@
         <v>285881.0333887099</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34020,7 +34308,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34053,7 +34341,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34086,7 +34374,7 @@
         <v>286432.8611887099</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34119,7 +34407,7 @@
         <v>287043.0360887099</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34152,7 +34440,7 @@
         <v>285709.3531887099</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34185,7 +34473,7 @@
         <v>279670.5943887099</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34218,7 +34506,7 @@
         <v>276334.3790887099</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34251,7 +34539,7 @@
         <v>278084.5610887099</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34284,7 +34572,7 @@
         <v>279685.8078887099</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34317,7 +34605,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34350,7 +34638,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34383,7 +34671,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34416,7 +34704,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34449,7 +34737,7 @@
         <v>279711.7396887099</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34482,7 +34770,7 @@
         <v>279789.5188887099</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34515,7 +34803,7 @@
         <v>276876.6303887099</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34548,7 +34836,7 @@
         <v>274850.1609887099</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34581,7 +34869,7 @@
         <v>274733.3569887099</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34614,7 +34902,7 @@
         <v>271923.2680887099</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34647,7 +34935,7 @@
         <v>272255.6154887099</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34680,7 +34968,7 @@
         <v>272252.81548871</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34713,7 +35001,7 @@
         <v>272252.81548871</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34746,7 +35034,7 @@
         <v>272252.81548871</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34779,7 +35067,7 @@
         <v>272462.7243887099</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34812,7 +35100,7 @@
         <v>272946.5345887099</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34845,7 +35133,7 @@
         <v>272946.5345887099</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34878,7 +35166,7 @@
         <v>272946.5345887099</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34911,7 +35199,7 @@
         <v>272946.5345887099</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34944,7 +35232,7 @@
         <v>269466.64668871</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34977,7 +35265,7 @@
         <v>269466.64668871</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35010,7 +35298,7 @@
         <v>269956.73258871</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35043,7 +35331,7 @@
         <v>269734.2932887099</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35076,7 +35364,7 @@
         <v>268251.37568871</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35109,7 +35397,7 @@
         <v>272374.96508871</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35142,7 +35430,7 @@
         <v>272159.32408871</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35175,7 +35463,7 @@
         <v>263702.22538871</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35208,7 +35496,7 @@
         <v>263702.22538871</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35241,7 +35529,7 @@
         <v>262116.57148871</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35274,7 +35562,7 @@
         <v>261055.76358871</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35307,7 +35595,7 @@
         <v>261055.76358871</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35340,7 +35628,7 @@
         <v>261192.6082887099</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35373,7 +35661,7 @@
         <v>261084.29848871</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35406,7 +35694,7 @@
         <v>254862.59248871</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35439,7 +35727,7 @@
         <v>251414.8366887099</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35472,7 +35760,7 @@
         <v>257203.7858887099</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35505,7 +35793,7 @@
         <v>257203.7858887099</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35538,7 +35826,7 @@
         <v>267304.92848871</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35571,7 +35859,7 @@
         <v>268291.3864887099</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35604,7 +35892,7 @@
         <v>269793.14878871</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35637,7 +35925,7 @@
         <v>269427.0162887099</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35670,7 +35958,7 @@
         <v>268525.31938871</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35703,7 +35991,7 @@
         <v>263167.95528871</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35736,7 +36024,7 @@
         <v>255992.05348871</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35769,7 +36057,7 @@
         <v>264491.41558871</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35802,7 +36090,7 @@
         <v>254960.77088871</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35835,7 +36123,7 @@
         <v>256875.55778871</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35868,7 +36156,7 @@
         <v>261780.91578871</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35901,7 +36189,7 @@
         <v>261780.91578871</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35934,7 +36222,7 @@
         <v>261719.51808871</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35967,7 +36255,7 @@
         <v>254555.37288871</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36000,7 +36288,7 @@
         <v>260606.43168871</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36033,7 +36321,7 @@
         <v>260606.43168871</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36066,7 +36354,7 @@
         <v>269187.79618871</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36099,7 +36387,7 @@
         <v>268187.79618871</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36132,7 +36420,7 @@
         <v>288363.11828871</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36165,7 +36453,7 @@
         <v>297887.27988871</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36198,7 +36486,7 @@
         <v>300417.93958871</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36528,7 +36816,7 @@
         <v>291649.9523887102</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -39861,7 +40149,7 @@
         <v>268310.1545065101</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39894,7 +40182,7 @@
         <v>271247.5602065101</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39927,7 +40215,7 @@
         <v>270113.7180065101</v>
       </c>
       <c r="H1146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39960,7 +40248,7 @@
         <v>269422.7879065101</v>
       </c>
       <c r="H1147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -39993,7 +40281,7 @@
         <v>267049.5812359301</v>
       </c>
       <c r="H1148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40026,7 +40314,7 @@
         <v>266323.2844359301</v>
       </c>
       <c r="H1149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40059,7 +40347,7 @@
         <v>260368.7924359301</v>
       </c>
       <c r="H1150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40455,7 +40743,7 @@
         <v>272326.9521359301</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40488,7 +40776,7 @@
         <v>272326.9521359301</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40521,7 +40809,7 @@
         <v>272490.3651359301</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40554,7 +40842,7 @@
         <v>272490.3651359301</v>
       </c>
       <c r="H1165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40587,7 +40875,7 @@
         <v>272380.2156359301</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40620,7 +40908,7 @@
         <v>272380.2156359301</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40653,7 +40941,7 @@
         <v>270929.4047359301</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40686,7 +40974,7 @@
         <v>270811.6452359301</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40719,7 +41007,7 @@
         <v>271329.7467359301</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -40752,7 +41040,7 @@
         <v>271422.4525359301</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -40785,7 +41073,7 @@
         <v>271485.9162359301</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40818,7 +41106,7 @@
         <v>274665.6125359301</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -40851,7 +41139,7 @@
         <v>273898.4550359302</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40884,7 +41172,7 @@
         <v>273143.6150359301</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -40917,7 +41205,7 @@
         <v>291003.0118359301</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -40950,7 +41238,7 @@
         <v>289913.9745359301</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -40983,7 +41271,7 @@
         <v>290413.9745359301</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41016,7 +41304,7 @@
         <v>290381.9745359301</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41049,7 +41337,7 @@
         <v>289945.2953359301</v>
       </c>
       <c r="H1180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41082,7 +41370,7 @@
         <v>289950.3527697601</v>
       </c>
       <c r="H1181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -41115,7 +41403,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -41148,7 +41436,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -41181,7 +41469,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41214,7 +41502,7 @@
         <v>290186.5576697601</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -41247,7 +41535,7 @@
         <v>290609.0213697601</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41280,7 +41568,7 @@
         <v>288665.6297697601</v>
       </c>
       <c r="H1187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -41313,7 +41601,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -41346,7 +41634,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -41379,7 +41667,7 @@
         <v>288367.4413697601</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41412,7 +41700,7 @@
         <v>288301.6468697601</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -41445,7 +41733,7 @@
         <v>288160.6776697601</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -41478,7 +41766,7 @@
         <v>288160.6776697601</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -41511,7 +41799,7 @@
         <v>287168.0521697601</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -41544,7 +41832,7 @@
         <v>284342.7390697601</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -41577,7 +41865,7 @@
         <v>284342.7390697601</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -41610,7 +41898,7 @@
         <v>286576.1755697601</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -41643,7 +41931,7 @@
         <v>286966.6260285301</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -41676,7 +41964,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -41709,7 +41997,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41742,7 +42030,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -41775,7 +42063,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -41808,7 +42096,7 @@
         <v>294456.43692853</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -41841,7 +42129,7 @@
         <v>295943.9359285301</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41874,7 +42162,7 @@
         <v>290842.25272853</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -41885,6 +42173,6 @@
       <c r="M1205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest EOS.xlsx
+++ b/BackTest/2020-01-12 BackTest EOS.xlsx
@@ -2365,14 +2365,10 @@
         <v>24295.47116638003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3274</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2405,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2441,19 +2431,11 @@
         <v>43559.12565835002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3253</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2560,19 +2530,11 @@
         <v>43559.12565835002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3261</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2640,19 +2596,11 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3259</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2681,19 +2629,11 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3263</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2722,19 +2662,11 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3263</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2766,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2805,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2844,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2883,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2922,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2961,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3000,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3039,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3078,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3117,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3156,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3195,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3234,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3276,13 +3130,9 @@
         <v>3249</v>
       </c>
       <c r="J83" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3249</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3167,11 @@
         <v>3250</v>
       </c>
       <c r="J84" t="n">
-        <v>3274</v>
+        <v>3249</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3358,11 +3208,11 @@
         <v>3253</v>
       </c>
       <c r="J85" t="n">
-        <v>3274</v>
+        <v>3249</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3399,13 +3249,9 @@
         <v>3257</v>
       </c>
       <c r="J86" t="n">
-        <v>3274</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3257</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3440,11 +3286,11 @@
         <v>3260</v>
       </c>
       <c r="J87" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3481,11 +3327,11 @@
         <v>3255</v>
       </c>
       <c r="J88" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3522,7 +3368,7 @@
         <v>3253</v>
       </c>
       <c r="J89" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3563,7 +3409,7 @@
         <v>3259</v>
       </c>
       <c r="J90" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3604,7 +3450,7 @@
         <v>3256</v>
       </c>
       <c r="J91" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3645,7 +3491,7 @@
         <v>3262</v>
       </c>
       <c r="J92" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3686,7 +3532,7 @@
         <v>3260</v>
       </c>
       <c r="J93" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3727,7 +3573,7 @@
         <v>3260</v>
       </c>
       <c r="J94" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3768,7 +3614,7 @@
         <v>3263</v>
       </c>
       <c r="J95" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3803,13 +3649,11 @@
         <v>39322.34655835004</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3844,13 +3688,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3885,13 +3727,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3926,13 +3766,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3967,13 +3805,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4008,13 +3844,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4049,13 +3883,11 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4090,13 +3922,11 @@
         <v>40997.30728039004</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4131,13 +3961,11 @@
         <v>41001.14270406005</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4172,13 +4000,11 @@
         <v>40728.96230406005</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4213,13 +4039,11 @@
         <v>41589.46730406005</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4258,7 +4082,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4297,7 +4121,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4332,13 +4156,11 @@
         <v>41867.36760406005</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4379,7 +4201,7 @@
         <v>3264</v>
       </c>
       <c r="J110" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4414,13 +4236,11 @@
         <v>42190.87190406005</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4455,13 +4275,11 @@
         <v>42810.34840406005</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4496,13 +4314,11 @@
         <v>65629.45260406005</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4541,7 +4357,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4580,7 +4396,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4619,7 +4435,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4658,7 +4474,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4697,7 +4513,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4736,7 +4552,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4775,7 +4591,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4814,7 +4630,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4853,7 +4669,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4892,7 +4708,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4931,7 +4747,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4970,7 +4786,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5009,7 +4825,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5048,7 +4864,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5087,7 +4903,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5126,7 +4942,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5165,7 +4981,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5204,7 +5020,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5243,7 +5059,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5282,7 +5098,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5321,7 +5137,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5356,19 +5172,19 @@
         <v>135841.32050406</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>3274</v>
+        <v>3257</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.005995723885156</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
@@ -5398,8 +5214,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5431,8 +5253,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5292,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5331,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +5370,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5593,11 +5445,17 @@
         <v>147592.80250406</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5629,8 +5487,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5662,8 +5526,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5695,8 +5565,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5728,8 +5604,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5761,8 +5643,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5827,8 +5721,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5860,8 +5760,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5893,8 +5799,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5926,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5959,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +5916,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6025,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6111,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6189,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6289,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6322,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6355,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6388,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6421,8 +6423,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +6462,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +6501,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6520,8 +6540,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +6579,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6586,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +6657,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6696,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6685,8 +6735,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6718,8 +6774,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6751,8 +6813,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6784,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6817,8 +6891,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6850,8 +6930,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6883,8 +6969,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6916,8 +7008,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6949,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6982,8 +7086,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7015,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7048,8 +7164,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7081,8 +7203,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7114,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7180,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7213,8 +7359,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7246,8 +7398,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7279,8 +7437,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7312,8 +7476,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7345,8 +7515,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7378,8 +7554,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7411,8 +7593,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7444,8 +7632,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7477,8 +7671,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7510,8 +7710,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7543,8 +7749,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7576,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7609,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7642,8 +7866,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7675,8 +7905,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +7941,17 @@
         <v>168844.29501481</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7738,11 +7980,17 @@
         <v>169984.37351481</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +8019,17 @@
         <v>167629.03441481</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7804,11 +8058,17 @@
         <v>168354.23661481</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +8097,17 @@
         <v>181745.31791481</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7870,11 +8136,17 @@
         <v>170950.29861481</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +8175,17 @@
         <v>170487.81501481</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7936,11 +8214,17 @@
         <v>171060.18411481</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +8253,17 @@
         <v>164909.97031481</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8002,11 +8292,17 @@
         <v>164713.62461481</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8035,11 +8331,17 @@
         <v>169701.30371481</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8068,11 +8370,17 @@
         <v>169080.31601481</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +8409,17 @@
         <v>172973.07231481</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +8448,17 @@
         <v>172973.07231481</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8167,11 +8487,17 @@
         <v>172756.07231481</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +8526,17 @@
         <v>173889.01581481</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8233,11 +8565,17 @@
         <v>179870.81021481</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +8604,17 @@
         <v>196073.45951481</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8299,11 +8643,17 @@
         <v>192472.81921481</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +8682,17 @@
         <v>192500.31591481</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8721,17 @@
         <v>194146.72611481</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +8760,17 @@
         <v>193553.79971481</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8431,11 +8799,17 @@
         <v>193659.24301481</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8464,11 +8838,17 @@
         <v>193659.24301481</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +8877,17 @@
         <v>194125.70431481</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +8916,17 @@
         <v>191949.98431481</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8563,11 +8955,17 @@
         <v>191949.98431481</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8994,17 @@
         <v>191949.98431481</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8629,11 +9033,17 @@
         <v>191588.10691481</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +9072,17 @@
         <v>189772.27261481</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +9111,17 @@
         <v>191114.07221481</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8728,11 +9150,17 @@
         <v>191114.07221481</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +9189,17 @@
         <v>192958.47881481</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +9228,17 @@
         <v>192926.47881481</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +9267,17 @@
         <v>193176.47881481</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +9306,17 @@
         <v>193379.93911481</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8893,11 +9345,17 @@
         <v>193379.93911481</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +9384,17 @@
         <v>193560.73671481</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +9423,17 @@
         <v>194966.10681481</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +9462,17 @@
         <v>194966.10681481</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9025,11 +9501,17 @@
         <v>194839.86301481</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9058,11 +9540,17 @@
         <v>191646.87491481</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9091,11 +9579,17 @@
         <v>191236.00851481</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +9618,17 @@
         <v>185054.76771481</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9157,11 +9657,17 @@
         <v>180307.07421481</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9190,11 +9696,17 @@
         <v>187498.47501481</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9223,11 +9735,17 @@
         <v>187055.68991481</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +9774,17 @@
         <v>186835.20541481</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9292,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9325,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9358,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9391,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9424,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9457,8 +10011,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9490,8 +10050,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9523,8 +10089,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9556,8 +10128,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9589,8 +10167,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9622,8 +10206,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9655,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9688,8 +10284,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9721,8 +10323,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9754,8 +10362,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9787,8 +10401,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9820,8 +10440,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9853,8 +10479,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9886,8 +10518,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9919,8 +10557,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9952,8 +10596,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9985,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10018,8 +10674,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10051,8 +10713,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10084,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10117,8 +10791,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10150,8 +10830,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10183,8 +10869,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10216,8 +10908,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10249,8 +10947,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10282,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10315,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10348,8 +11064,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10381,8 +11103,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10414,8 +11142,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10447,8 +11181,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10480,8 +11220,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10513,8 +11259,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10546,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10579,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10612,8 +11376,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10645,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10678,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10711,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10744,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10777,8 +11571,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10810,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10843,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10876,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10909,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10942,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10975,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11008,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11041,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11074,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11107,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11140,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11173,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11206,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11239,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11272,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11305,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11338,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11371,8 +12273,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11404,8 +12312,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11437,8 +12351,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11470,8 +12390,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11503,8 +12429,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11536,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11569,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11602,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11635,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11668,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11701,8 +12663,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11734,8 +12702,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11767,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11800,8 +12780,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11833,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11866,8 +12858,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11899,8 +12897,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11932,8 +12936,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11965,8 +12975,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11998,8 +13014,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12031,8 +13053,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12064,8 +13092,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12097,8 +13131,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12130,8 +13170,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12163,8 +13209,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12196,8 +13248,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12229,8 +13287,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12262,8 +13326,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12295,8 +13365,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12328,8 +13404,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12361,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12394,8 +13482,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12427,8 +13521,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12460,8 +13560,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12493,8 +13599,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12526,8 +13638,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12559,8 +13677,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12592,8 +13716,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12625,8 +13755,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12658,8 +13794,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12691,8 +13833,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12724,8 +13872,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12757,8 +13911,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12790,8 +13950,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12823,8 +13989,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12856,8 +14028,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12889,8 +14067,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12922,8 +14106,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12955,8 +14145,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12988,8 +14184,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13021,8 +14223,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13054,8 +14262,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13087,8 +14301,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13120,8 +14340,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13153,8 +14379,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13186,8 +14418,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13219,8 +14457,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13252,8 +14496,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13285,8 +14535,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13318,8 +14574,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13351,8 +14613,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13384,8 +14652,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13417,8 +14691,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13450,8 +14730,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13483,8 +14769,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13516,8 +14808,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13549,8 +14847,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13582,8 +14886,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13615,8 +14925,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13648,8 +14964,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13681,8 +15003,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13714,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13747,8 +15081,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13780,8 +15120,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13813,8 +15159,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13846,8 +15198,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13879,8 +15237,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13912,8 +15276,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13945,8 +15315,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13978,8 +15354,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14011,8 +15393,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14044,8 +15432,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14077,8 +15471,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14110,8 +15510,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14143,8 +15549,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14176,8 +15588,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14209,8 +15627,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14242,8 +15666,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14275,8 +15705,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14308,8 +15744,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14341,8 +15783,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14374,8 +15822,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14407,8 +15861,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14440,8 +15900,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14473,8 +15939,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14506,8 +15978,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14539,8 +16017,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14569,11 +16053,17 @@
         <v>213709.1532558201</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14602,11 +16092,17 @@
         <v>213709.1532558201</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14635,11 +16131,17 @@
         <v>215113.9314558201</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14668,11 +16170,17 @@
         <v>214356.2749558201</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14701,11 +16209,17 @@
         <v>214680.5732558201</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14734,11 +16248,17 @@
         <v>213445.4519558201</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14767,11 +16287,17 @@
         <v>212698.7265558201</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14800,11 +16326,17 @@
         <v>212986.9929558201</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14833,11 +16365,17 @@
         <v>213852.2161558201</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14866,11 +16404,17 @@
         <v>210798.8636558201</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14899,11 +16443,17 @@
         <v>207783.5578558201</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14932,11 +16482,17 @@
         <v>207783.5578558201</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14965,11 +16521,17 @@
         <v>181184.6456558201</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14998,11 +16560,17 @@
         <v>176482.7779396501</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15031,11 +16599,17 @@
         <v>167055.4997396501</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15064,11 +16638,17 @@
         <v>120210.1893396501</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15097,11 +16677,17 @@
         <v>130693.7324396501</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15133,8 +16719,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15166,8 +16758,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15199,8 +16797,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15232,8 +16836,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15265,8 +16875,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15298,8 +16914,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15331,8 +16953,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15364,8 +16992,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15397,8 +17031,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15430,8 +17070,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15463,8 +17109,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15496,8 +17148,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15529,8 +17187,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15562,8 +17226,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15595,8 +17265,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15628,8 +17304,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15658,11 +17340,17 @@
         <v>197779.6004627701</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15691,11 +17379,17 @@
         <v>186427.0135627701</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15724,11 +17418,17 @@
         <v>185942.5693627701</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +17457,17 @@
         <v>185710.2963627701</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15790,11 +17496,17 @@
         <v>185383.0243627701</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15823,11 +17535,17 @@
         <v>172755.5594627701</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15856,11 +17574,17 @@
         <v>173842.2488627701</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15889,11 +17613,17 @@
         <v>174864.1266627701</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15922,11 +17652,17 @@
         <v>177535.6502627701</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15958,8 +17694,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15991,8 +17733,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16024,8 +17772,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16057,8 +17811,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16090,8 +17850,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16123,8 +17889,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16156,8 +17928,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16189,8 +17967,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16222,8 +18006,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16255,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16288,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16321,8 +18123,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16354,8 +18162,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16387,8 +18201,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16420,8 +18240,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16453,8 +18279,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16486,8 +18318,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16519,8 +18357,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16552,8 +18396,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16585,8 +18435,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16618,8 +18474,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16651,8 +18513,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16681,11 +18549,17 @@
         <v>210695.10936277</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16717,8 +18591,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16750,8 +18630,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16783,8 +18669,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16813,11 +18705,17 @@
         <v>210354.58216277</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16846,11 +18744,17 @@
         <v>210354.58216277</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16879,11 +18783,17 @@
         <v>210418.37766277</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16912,11 +18822,17 @@
         <v>210372.14106277</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16945,11 +18861,17 @@
         <v>212325.56646277</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +18900,17 @@
         <v>216792.4417627701</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17011,11 +18939,17 @@
         <v>226331.52846277</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17044,11 +18978,17 @@
         <v>213912.0298627701</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17077,11 +19017,17 @@
         <v>217393.50026277</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17113,8 +19059,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17146,8 +19098,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17179,8 +19137,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17212,8 +19176,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17245,8 +19215,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17278,8 +19254,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17311,8 +19293,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17344,8 +19332,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17377,8 +19371,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17410,8 +19410,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17443,8 +19449,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17476,8 +19488,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17506,13 +19524,19 @@
         <v>361212.34047386</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3257</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L503" t="n">
-        <v>1</v>
+        <v>1.043817930610992</v>
       </c>
       <c r="M503" t="inlineStr"/>
     </row>
@@ -17539,7 +19563,7 @@
         <v>361212.34047386</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17572,7 +19596,7 @@
         <v>374484.10537386</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17605,7 +19629,7 @@
         <v>360942.7983738601</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17638,7 +19662,7 @@
         <v>360942.7983738601</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17671,7 +19695,7 @@
         <v>358227.3034391801</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17704,7 +19728,7 @@
         <v>359894.3132391801</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17737,7 +19761,7 @@
         <v>363411.4775391801</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17770,7 +19794,7 @@
         <v>360293.5174391801</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17803,7 +19827,7 @@
         <v>361799.3792391801</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17836,7 +19860,7 @@
         <v>386997.1502391801</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17869,7 +19893,7 @@
         <v>381802.0504731001</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17902,7 +19926,7 @@
         <v>378158.6044731001</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17935,7 +19959,7 @@
         <v>390315.1169731001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17968,7 +19992,7 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18001,7 +20025,7 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18034,7 +20058,7 @@
         <v>386476.8812731001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18067,7 +20091,7 @@
         <v>384300.9862731001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18100,7 +20124,7 @@
         <v>395668.7410731001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18133,7 +20157,7 @@
         <v>401585.8831055501</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18166,7 +20190,7 @@
         <v>393842.7692055501</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18199,7 +20223,7 @@
         <v>389708.9760055501</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18232,7 +20256,7 @@
         <v>392394.1784055501</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18265,7 +20289,7 @@
         <v>391427.7854055501</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18298,7 +20322,7 @@
         <v>376612.7939055501</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18331,7 +20355,7 @@
         <v>387684.8281055501</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18364,7 +20388,7 @@
         <v>386773.2459055501</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18397,7 +20421,7 @@
         <v>386773.2459055501</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18430,7 +20454,7 @@
         <v>381022.3720055501</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18463,7 +20487,7 @@
         <v>384131.45968424</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -26581,7 +28605,7 @@
         <v>305718.5089459798</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26614,7 +28638,7 @@
         <v>309833.6012459798</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26647,7 +28671,7 @@
         <v>314171.1266459798</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26680,7 +28704,7 @@
         <v>301977.2807459797</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26713,7 +28737,7 @@
         <v>302124.6290459798</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26746,7 +28770,7 @@
         <v>296967.9293459798</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26779,7 +28803,7 @@
         <v>296965.5893459797</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26812,7 +28836,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26845,7 +28869,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26878,7 +28902,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26911,7 +28935,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26944,7 +28968,7 @@
         <v>289849.7536459797</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26977,7 +29001,7 @@
         <v>291949.0053459798</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27274,7 +29298,7 @@
         <v>232616.3104459797</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27307,7 +29331,7 @@
         <v>236498.1117380097</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27340,7 +29364,7 @@
         <v>237725.6258380097</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27373,7 +29397,7 @@
         <v>239282.2521667497</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27406,7 +29430,7 @@
         <v>239280.2521667497</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27439,7 +29463,7 @@
         <v>241770.6789667497</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27472,7 +29496,7 @@
         <v>241405.1853667497</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27505,7 +29529,7 @@
         <v>238800.3661667497</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27538,7 +29562,7 @@
         <v>238800.3661667497</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27571,7 +29595,7 @@
         <v>238881.1531667497</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27604,7 +29628,7 @@
         <v>239489.9606667497</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28528,7 +30552,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28561,7 +30585,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28627,7 +30651,7 @@
         <v>274008.7628943597</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28660,7 +30684,7 @@
         <v>274008.7628943597</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28693,7 +30717,7 @@
         <v>270018.5132594597</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28726,7 +30750,7 @@
         <v>269508.8876594597</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28759,7 +30783,7 @@
         <v>270693.6292594597</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28792,7 +30816,7 @@
         <v>269842.0005594597</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28825,7 +30849,7 @@
         <v>269443.8648594597</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28858,7 +30882,7 @@
         <v>272804.0377594597</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28891,7 +30915,7 @@
         <v>273378.2177594597</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28924,7 +30948,7 @@
         <v>273524.7372594597</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28957,7 +30981,7 @@
         <v>273496.3896594597</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28990,7 +31014,7 @@
         <v>272583.2551594597</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29089,7 +31113,7 @@
         <v>273787.5446682298</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29155,7 +31179,7 @@
         <v>282002.7657682298</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29188,7 +31212,7 @@
         <v>280848.5380692598</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29221,7 +31245,7 @@
         <v>280661.6813692598</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29254,7 +31278,7 @@
         <v>276321.9341692598</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29287,7 +31311,7 @@
         <v>277258.1349450698</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29320,7 +31344,7 @@
         <v>277350.5879450698</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29353,7 +31377,7 @@
         <v>277187.9548450698</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29518,7 +31542,7 @@
         <v>272438.4811450698</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29551,7 +31575,7 @@
         <v>271985.9000450697</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30244,7 +32268,7 @@
         <v>278712.2426048898</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31531,7 +33555,7 @@
         <v>281885.4885704799</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31597,7 +33621,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31630,7 +33654,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31663,7 +33687,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31696,7 +33720,7 @@
         <v>284718.3587704799</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31729,7 +33753,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31762,7 +33786,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31795,7 +33819,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31828,7 +33852,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31861,7 +33885,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31894,7 +33918,7 @@
         <v>285714.3542704799</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31927,7 +33951,7 @@
         <v>285891.3039704799</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31960,7 +33984,7 @@
         <v>287237.4026704798</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31993,7 +34017,7 @@
         <v>287501.3509704798</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32026,7 +34050,7 @@
         <v>287045.7816704799</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32059,7 +34083,7 @@
         <v>287323.7954704799</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32092,7 +34116,7 @@
         <v>284933.0571704798</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32125,7 +34149,7 @@
         <v>284897.8150704799</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32158,7 +34182,7 @@
         <v>284967.0904704799</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32191,7 +34215,7 @@
         <v>284969.1739704799</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32224,7 +34248,7 @@
         <v>288342.4189704799</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32257,7 +34281,7 @@
         <v>278756.4943704798</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32290,7 +34314,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32323,7 +34347,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32356,7 +34380,7 @@
         <v>278091.9251704799</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32389,7 +34413,7 @@
         <v>275988.7892130599</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32422,7 +34446,7 @@
         <v>270790.1155130599</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32455,7 +34479,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32488,7 +34512,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32521,7 +34545,7 @@
         <v>272247.9393887099</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32554,7 +34578,7 @@
         <v>271747.7393887099</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32587,7 +34611,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32620,7 +34644,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32653,7 +34677,7 @@
         <v>279958.7251887099</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32686,7 +34710,7 @@
         <v>278828.0076887099</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32719,7 +34743,7 @@
         <v>280414.2333887099</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32752,7 +34776,7 @@
         <v>285903.9739887099</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32785,7 +34809,7 @@
         <v>285881.0333887099</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32818,7 +34842,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32851,7 +34875,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32884,7 +34908,7 @@
         <v>286432.8611887099</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32917,7 +34941,7 @@
         <v>287043.0360887099</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32950,7 +34974,7 @@
         <v>285709.3531887099</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32983,7 +35007,7 @@
         <v>279670.5943887099</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33016,7 +35040,7 @@
         <v>276334.3790887099</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33049,7 +35073,7 @@
         <v>278084.5610887099</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33082,7 +35106,7 @@
         <v>279685.8078887099</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33115,7 +35139,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33148,7 +35172,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33181,7 +35205,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33214,7 +35238,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33247,7 +35271,7 @@
         <v>279711.7396887099</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33280,7 +35304,7 @@
         <v>279789.5188887099</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33313,7 +35337,7 @@
         <v>276876.6303887099</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33346,7 +35370,7 @@
         <v>274850.1609887099</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33379,7 +35403,7 @@
         <v>274733.3569887099</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33412,7 +35436,7 @@
         <v>271923.2680887099</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -39418,7 +41442,7 @@
         <v>272380.2156359301</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -39616,7 +41640,7 @@
         <v>274665.6125359301</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -39649,7 +41673,7 @@
         <v>273898.4550359302</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -39682,7 +41706,7 @@
         <v>273143.6150359301</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -39715,7 +41739,7 @@
         <v>291003.0118359301</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -39748,7 +41772,7 @@
         <v>289913.9745359301</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -39781,7 +41805,7 @@
         <v>290413.9745359301</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -39814,7 +41838,7 @@
         <v>290381.9745359301</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -39847,7 +41871,7 @@
         <v>289945.2953359301</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -39880,7 +41904,7 @@
         <v>289950.3527697601</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -39913,7 +41937,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -39946,7 +41970,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -39979,7 +42003,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -40012,7 +42036,7 @@
         <v>290186.5576697601</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -40045,7 +42069,7 @@
         <v>290609.0213697601</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -40078,7 +42102,7 @@
         <v>288665.6297697601</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -40111,7 +42135,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -40144,7 +42168,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -40177,7 +42201,7 @@
         <v>288367.4413697601</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -40210,7 +42234,7 @@
         <v>288301.6468697601</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -40474,7 +42498,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -40507,7 +42531,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -40540,7 +42564,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -40573,7 +42597,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -40606,7 +42630,7 @@
         <v>294456.43692853</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -40639,7 +42663,7 @@
         <v>295943.9359285301</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -40672,7 +42696,7 @@
         <v>290842.25272853</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
